--- a/lista_tecnicos.xlsx
+++ b/lista_tecnicos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Senha</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -527,6 +532,11 @@
           <t>21232f297a57a5a743894a0e4a801fc3</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -557,7 +567,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Equipe Red Ribbon</t>
+          <t>Red Ribbon</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -572,7 +582,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14e1b600b1fd579f47433b88e8d85291</t>
+          <t>202cb962ac59075b964b07152d234b70</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
         </is>
       </c>
     </row>
@@ -620,7 +635,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>e10adc3949ba59abbe56e057f20f883e</t>
+          <t>202cb962ac59075b964b07152d234b70</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
         </is>
       </c>
     </row>
@@ -638,7 +658,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>432.567.879.-09</t>
+          <t>432.567.879-09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -668,7 +688,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>c33367701511b4f6020ec61ded352059</t>
+          <t>e10adc3949ba59abbe56e057f20f883e</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
         </is>
       </c>
     </row>
@@ -719,6 +744,11 @@
           <t>202cb962ac59075b964b07152d234b70</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -764,7 +794,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>202cb962ac59075b964b07152d234b70</t>
+          <t>e10adc3949ba59abbe56e057f20f883e</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
         </is>
       </c>
     </row>
@@ -812,7 +847,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>202cb962ac59075b964b07152d234b70</t>
+          <t>e10adc3949ba59abbe56e057f20f883e</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
         </is>
       </c>
     </row>
@@ -860,7 +900,65 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>e10adc3949ba59abbe56e057f20f883e</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>202cb962ac59075b964b07152d234b70</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>teste@bol.com.br</t>
         </is>
       </c>
     </row>

--- a/lista_tecnicos.xlsx
+++ b/lista_tecnicos.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>admin@bol.com.br</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>202cb962ac59075b964b07152d234b70</t>
+          <t>d9b1d7db4cd6e70935368a1efb10e377</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>falso@outlook.com</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>e10adc3949ba59abbe56e057f20f883e</t>
+          <t>c56d0e9a7ccec67b4ea131655038d604</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>fake@gmail.com</t>
         </is>
       </c>
     </row>
@@ -702,21 +702,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Manoel Carlos</t>
+          <t>Victor Teixeira</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>874.457.854-96</t>
+          <t>123.456.789-91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(85) 98457-5841</t>
+          <t>(11) 94002-8922</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -731,22 +731,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Administrador</t>
+          <t>Usuário</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>mcarlos</t>
+          <t>vteixeira</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>202cb962ac59075b964b07152d234b70</t>
+          <t>14e1b600b1fd579f47433b88e8d85291</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>vteixeira@yahoo.com.br</t>
         </is>
       </c>
     </row>
@@ -755,26 +755,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>José Albino</t>
+          <t>Thiago Torres</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>875.785.968-98</t>
+          <t>987.654.321-10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(11) 99875-5847</t>
+          <t>(11) 94002-8921</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Diurno</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -789,17 +789,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>jalbino</t>
+          <t>thtorres</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>e10adc3949ba59abbe56e057f20f883e</t>
+          <t>73812f2b9a460ff9b3873fbcf717b5f7</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>thtorres@gmail.com</t>
         </is>
       </c>
     </row>
@@ -808,51 +808,51 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Roberta Andrade</t>
+          <t>Ivan Dantas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9875.784.784-98</t>
+          <t>159.753.852-59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(64) 98547-8695</t>
+          <t>(11) 99661-6311</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Matutino</t>
+          <t>Diurno</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SWAT</t>
+          <t>jaspion</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Administrador</t>
+          <t>Usuário</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>randrade</t>
+          <t>dantas</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>e10adc3949ba59abbe56e057f20f883e</t>
+          <t>c5941bf9681647eb475a0dc17e6ac895</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>dantas.van99@gmail.com</t>
         </is>
       </c>
     </row>
@@ -861,31 +861,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ana Carolina</t>
+          <t>Yan Crespo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>978.584.658-98</t>
+          <t>753.892.153-16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(11) 98574-8569</t>
+          <t>(11) 99661-6327</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Noturno</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BOP</t>
+          <t>Red Ribbon</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -895,17 +895,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>acarolina</t>
+          <t>ycrespo</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>e10adc3949ba59abbe56e057f20f883e</t>
+          <t>403cd9263157b159359936e919f3a83e</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>missao.certificacao@gmail.com</t>
         </is>
       </c>
     </row>
@@ -914,51 +914,51 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Lampiao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>857.985.965-96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>(87) 98547-6952</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Matutino</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>BOP</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Administrador</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>202cb962ac59075b964b07152d234b70</t>
+          <t>f67e209e9b8164dcb6812b9ac4357ed1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>teste@bol.com.br</t>
+          <t>lamp@bol.com</t>
         </is>
       </c>
     </row>
